--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H2">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I2">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J2">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N2">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O2">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P2">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q2">
-        <v>0.09484601969222221</v>
+        <v>0.3746950271176666</v>
       </c>
       <c r="R2">
-        <v>0.85361417723</v>
+        <v>3.372255244059</v>
       </c>
       <c r="S2">
-        <v>0.0002520858338377759</v>
+        <v>0.0008704727156825864</v>
       </c>
       <c r="T2">
-        <v>0.0002520858338377758</v>
+        <v>0.0008704727156825865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H3">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I3">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J3">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N3">
         <v>17.409842</v>
       </c>
       <c r="O3">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P3">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q3">
-        <v>0.2928064604635556</v>
+        <v>0.7565330775486664</v>
       </c>
       <c r="R3">
-        <v>2.635258144172</v>
+        <v>6.808797697937998</v>
       </c>
       <c r="S3">
-        <v>0.0007782336146373476</v>
+        <v>0.001757539745278468</v>
       </c>
       <c r="T3">
-        <v>0.0007782336146373476</v>
+        <v>0.001757539745278468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H4">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I4">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J4">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N4">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O4">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P4">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q4">
-        <v>0.226962267282</v>
+        <v>0.7427718723599999</v>
       </c>
       <c r="R4">
-        <v>2.042660405538</v>
+        <v>6.684946851239999</v>
       </c>
       <c r="S4">
-        <v>0.0006032300836994102</v>
+        <v>0.001725570402787349</v>
       </c>
       <c r="T4">
-        <v>0.0006032300836994102</v>
+        <v>0.001725570402787349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H5">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I5">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J5">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N5">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O5">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P5">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q5">
-        <v>0.1029878286477778</v>
+        <v>0.1507595080713333</v>
       </c>
       <c r="R5">
-        <v>0.92689045783</v>
+        <v>1.356835572642</v>
       </c>
       <c r="S5">
-        <v>0.0002737254841485564</v>
+        <v>0.0003502369364635659</v>
       </c>
       <c r="T5">
-        <v>0.0002737254841485564</v>
+        <v>0.0003502369364635659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H6">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I6">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J6">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N6">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O6">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P6">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q6">
-        <v>0.3246559523506667</v>
+        <v>0.8567009214909997</v>
       </c>
       <c r="R6">
-        <v>2.921903571156</v>
+        <v>7.710308293418999</v>
       </c>
       <c r="S6">
-        <v>0.0008628845651540436</v>
+        <v>0.001990244662157898</v>
       </c>
       <c r="T6">
-        <v>0.0008628845651540435</v>
+        <v>0.001990244662157898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H7">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I7">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J7">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N7">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O7">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P7">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q7">
-        <v>0.227760117468</v>
+        <v>0.5912755960669999</v>
       </c>
       <c r="R7">
-        <v>2.049841057212</v>
+        <v>5.321480364603</v>
       </c>
       <c r="S7">
-        <v>0.000605350644267667</v>
+        <v>0.001373621843301518</v>
       </c>
       <c r="T7">
-        <v>0.000605350644267667</v>
+        <v>0.001373621843301518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.330513</v>
       </c>
       <c r="I8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N8">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O8">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P8">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q8">
-        <v>10.85930907386278</v>
+        <v>16.60403907677811</v>
       </c>
       <c r="R8">
-        <v>97.733781664765</v>
+        <v>149.436351691003</v>
       </c>
       <c r="S8">
-        <v>0.02886233910152487</v>
+        <v>0.03857367176085844</v>
       </c>
       <c r="T8">
-        <v>0.02886233910152487</v>
+        <v>0.03857367176085844</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.330513</v>
       </c>
       <c r="I9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N9">
         <v>17.409842</v>
       </c>
       <c r="O9">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P9">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q9">
         <v>33.52461034543844</v>
       </c>
       <c r="R9">
-        <v>301.721493108946</v>
+        <v>301.7214931089459</v>
       </c>
       <c r="S9">
-        <v>0.08910315246164621</v>
+        <v>0.07788269525239824</v>
       </c>
       <c r="T9">
-        <v>0.08910315246164623</v>
+        <v>0.07788269525239824</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>17.330513</v>
       </c>
       <c r="I10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N10">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O10">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P10">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q10">
-        <v>25.985839116051</v>
+        <v>32.91480351012</v>
       </c>
       <c r="R10">
-        <v>233.872552044459</v>
+        <v>296.23323159108</v>
       </c>
       <c r="S10">
-        <v>0.06906628177757036</v>
+        <v>0.07646602256243817</v>
       </c>
       <c r="T10">
-        <v>0.06906628177757036</v>
+        <v>0.07646602256243817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.330513</v>
       </c>
       <c r="I11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N11">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O11">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P11">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q11">
-        <v>11.79149811200722</v>
+        <v>6.680677836768221</v>
       </c>
       <c r="R11">
-        <v>106.123483008065</v>
+        <v>60.12610053091399</v>
       </c>
       <c r="S11">
-        <v>0.03133995125370195</v>
+        <v>0.01552021606453263</v>
       </c>
       <c r="T11">
-        <v>0.03133995125370195</v>
+        <v>0.01552021606453263</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.330513</v>
       </c>
       <c r="I12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N12">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O12">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P12">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q12">
-        <v>37.17118905659533</v>
+        <v>37.96339569001366</v>
       </c>
       <c r="R12">
-        <v>334.540701509358</v>
+        <v>341.670561210123</v>
       </c>
       <c r="S12">
-        <v>0.09879518632917234</v>
+        <v>0.08819465899247501</v>
       </c>
       <c r="T12">
-        <v>0.09879518632917234</v>
+        <v>0.08819465899247501</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>17.330513</v>
       </c>
       <c r="I13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N13">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O13">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P13">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q13">
-        <v>26.077188250074</v>
+        <v>26.20147691247233</v>
       </c>
       <c r="R13">
-        <v>234.694694250666</v>
+        <v>235.813292212251</v>
       </c>
       <c r="S13">
-        <v>0.06930907343815108</v>
+        <v>0.0608699585322546</v>
       </c>
       <c r="T13">
-        <v>0.0693090734381511</v>
+        <v>0.0608699585322546</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,10 +1293,10 @@
         <v>1.88887</v>
       </c>
       <c r="I14">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J14">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N14">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O14">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P14">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q14">
-        <v>1.183566991372222</v>
+        <v>1.809690878218889</v>
       </c>
       <c r="R14">
-        <v>10.65210292235</v>
+        <v>16.28721790397</v>
       </c>
       <c r="S14">
-        <v>0.003145735296969991</v>
+        <v>0.004204183187129699</v>
       </c>
       <c r="T14">
-        <v>0.00314573529696999</v>
+        <v>0.0042041831871297</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>1.88887</v>
       </c>
       <c r="I15">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J15">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N15">
         <v>17.409842</v>
       </c>
       <c r="O15">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P15">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q15">
-        <v>3.653880917615556</v>
+        <v>3.653880917615555</v>
       </c>
       <c r="R15">
-        <v>32.88492825854</v>
+        <v>32.88492825853999</v>
       </c>
       <c r="S15">
-        <v>0.009711441986179504</v>
+        <v>0.008488513097182841</v>
       </c>
       <c r="T15">
-        <v>0.009711441986179502</v>
+        <v>0.008488513097182841</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,10 +1417,10 @@
         <v>1.88887</v>
       </c>
       <c r="I16">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J16">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N16">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O16">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P16">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q16">
-        <v>2.832222677489999</v>
+        <v>3.5874174588</v>
       </c>
       <c r="R16">
-        <v>25.49000409741</v>
+        <v>32.2867571292</v>
       </c>
       <c r="S16">
-        <v>0.007527603346836839</v>
+        <v>0.008334108519321533</v>
       </c>
       <c r="T16">
-        <v>0.007527603346836838</v>
+        <v>0.008334108519321533</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>1.88887</v>
       </c>
       <c r="I17">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J17">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N17">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O17">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P17">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q17">
-        <v>1.285167209927778</v>
+        <v>0.7281337803177778</v>
       </c>
       <c r="R17">
-        <v>11.56650488935</v>
+        <v>6.55320402286</v>
       </c>
       <c r="S17">
-        <v>0.003415772731284989</v>
+        <v>0.001691563920687966</v>
       </c>
       <c r="T17">
-        <v>0.003415772731284989</v>
+        <v>0.001691563920687966</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>1.88887</v>
       </c>
       <c r="I18">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J18">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N18">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O18">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P18">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q18">
-        <v>4.051325190046667</v>
+        <v>4.137668585863333</v>
       </c>
       <c r="R18">
-        <v>36.46192671042</v>
+        <v>37.23901727277</v>
       </c>
       <c r="S18">
-        <v>0.01076778648165717</v>
+        <v>0.009612424371460688</v>
       </c>
       <c r="T18">
-        <v>0.01076778648165716</v>
+        <v>0.009612424371460688</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,10 +1603,10 @@
         <v>1.88887</v>
       </c>
       <c r="I19">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J19">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N19">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O19">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P19">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q19">
-        <v>2.84217891126</v>
+        <v>2.855725257276667</v>
       </c>
       <c r="R19">
-        <v>25.57961020134</v>
+        <v>25.70152731549</v>
       </c>
       <c r="S19">
-        <v>0.007554065453522377</v>
+        <v>0.006634277852757143</v>
       </c>
       <c r="T19">
-        <v>0.007554065453522377</v>
+        <v>0.006634277852757143</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H20">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I20">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J20">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N20">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O20">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P20">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q20">
-        <v>1.546115566414444</v>
+        <v>2.655203305317333</v>
       </c>
       <c r="R20">
-        <v>13.91504009773</v>
+        <v>23.896829747856</v>
       </c>
       <c r="S20">
-        <v>0.004109332505822717</v>
+        <v>0.006168435299631399</v>
       </c>
       <c r="T20">
-        <v>0.004109332505822717</v>
+        <v>0.006168435299631399</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H21">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I21">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J21">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N21">
         <v>17.409842</v>
       </c>
       <c r="O21">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P21">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q21">
-        <v>4.773132577819111</v>
+        <v>5.361024253621333</v>
       </c>
       <c r="R21">
-        <v>42.958193200372</v>
+        <v>48.249218282592</v>
       </c>
       <c r="S21">
-        <v>0.01268623722748013</v>
+        <v>0.01245446297162759</v>
       </c>
       <c r="T21">
-        <v>0.01268623722748013</v>
+        <v>0.01245446297162758</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H22">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I22">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J22">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N22">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O22">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P22">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q22">
-        <v>3.699785141981999</v>
+        <v>5.26350815424</v>
       </c>
       <c r="R22">
-        <v>33.298066277838</v>
+        <v>47.37157338815999</v>
       </c>
       <c r="S22">
-        <v>0.009833448209673565</v>
+        <v>0.01222791845486626</v>
       </c>
       <c r="T22">
-        <v>0.009833448209673565</v>
+        <v>0.01222791845486626</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H23">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I23">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J23">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N23">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O23">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P23">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q23">
-        <v>1.678837820925555</v>
+        <v>1.068327880458667</v>
       </c>
       <c r="R23">
-        <v>15.10954038833</v>
+        <v>9.614950924127999</v>
       </c>
       <c r="S23">
-        <v>0.004462087426965777</v>
+        <v>0.002481885811231335</v>
       </c>
       <c r="T23">
-        <v>0.004462087426965776</v>
+        <v>0.002481885811231335</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H24">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I24">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J24">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N24">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O24">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P24">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q24">
-        <v>5.292321420417333</v>
+        <v>6.070844163344</v>
       </c>
       <c r="R24">
-        <v>47.630892783756</v>
+        <v>54.637597470096</v>
       </c>
       <c r="S24">
-        <v>0.01406615968211083</v>
+        <v>0.01410348102562974</v>
       </c>
       <c r="T24">
-        <v>0.01406615968211082</v>
+        <v>0.01410348102562974</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H25">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I25">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J25">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N25">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O25">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P25">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q25">
-        <v>3.712791155268</v>
+        <v>4.189959309328001</v>
       </c>
       <c r="R25">
-        <v>33.415120397412</v>
+        <v>37.709633783952</v>
       </c>
       <c r="S25">
-        <v>0.009868016151636188</v>
+        <v>0.009733903560574672</v>
       </c>
       <c r="T25">
-        <v>0.009868016151636188</v>
+        <v>0.009733903560574672</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H26">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I26">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J26">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N26">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O26">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P26">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q26">
-        <v>13.75240279053278</v>
+        <v>24.39140852022911</v>
       </c>
       <c r="R26">
-        <v>123.771625114795</v>
+        <v>219.522676682062</v>
       </c>
       <c r="S26">
-        <v>0.03655172811652213</v>
+        <v>0.05666489832345611</v>
       </c>
       <c r="T26">
-        <v>0.03655172811652212</v>
+        <v>0.05666489832345611</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H27">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I27">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J27">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N27">
         <v>17.409842</v>
       </c>
       <c r="O27">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P27">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q27">
-        <v>42.45610302922645</v>
+        <v>49.24780426232044</v>
       </c>
       <c r="R27">
-        <v>382.104927263038</v>
+        <v>443.2302383608839</v>
       </c>
       <c r="S27">
-        <v>0.1128416581776992</v>
+        <v>0.1144100316660042</v>
       </c>
       <c r="T27">
-        <v>0.1128416581776992</v>
+        <v>0.1144100316660042</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H28">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I28">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J28">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N28">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O28">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P28">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q28">
-        <v>32.908882502853</v>
+        <v>48.35199526248</v>
       </c>
       <c r="R28">
-        <v>296.1799425256769</v>
+        <v>435.1679573623199</v>
       </c>
       <c r="S28">
-        <v>0.08746664449727443</v>
+        <v>0.1123289330754452</v>
       </c>
       <c r="T28">
-        <v>0.0874666444972744</v>
+        <v>0.1123289330754452</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H29">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I29">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J29">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N29">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O29">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P29">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q29">
-        <v>14.93294190607722</v>
+        <v>9.813945965506223</v>
       </c>
       <c r="R29">
-        <v>134.396477154695</v>
+        <v>88.32551368955599</v>
       </c>
       <c r="S29">
-        <v>0.03968941579478045</v>
+        <v>0.02279926761204026</v>
       </c>
       <c r="T29">
-        <v>0.03968941579478044</v>
+        <v>0.02279926761204026</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H30">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I30">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J30">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N30">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O30">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P30">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q30">
-        <v>47.07418866451933</v>
+        <v>55.76840001450466</v>
       </c>
       <c r="R30">
-        <v>423.6676979806739</v>
+        <v>501.9156001305419</v>
       </c>
       <c r="S30">
-        <v>0.1251158049672511</v>
+        <v>0.1295583530513576</v>
       </c>
       <c r="T30">
-        <v>0.1251158049672511</v>
+        <v>0.1295583530513576</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H31">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I31">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J31">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N31">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O31">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P31">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q31">
-        <v>33.024568508022</v>
+        <v>38.49008811953934</v>
       </c>
       <c r="R31">
-        <v>297.221116572198</v>
+        <v>346.410793075854</v>
       </c>
       <c r="S31">
-        <v>0.08777411974158117</v>
+        <v>0.0894182444587286</v>
       </c>
       <c r="T31">
-        <v>0.08777411974158117</v>
+        <v>0.0894182444587286</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H32">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N32">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O32">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P32">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q32">
-        <v>0.6620360701733334</v>
+        <v>0.6088893591588888</v>
       </c>
       <c r="R32">
-        <v>5.958324631560001</v>
+        <v>5.480004232429999</v>
       </c>
       <c r="S32">
-        <v>0.001759587965018365</v>
+        <v>0.001414541255309544</v>
       </c>
       <c r="T32">
-        <v>0.001759587965018364</v>
+        <v>0.001414541255309544</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H33">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N33">
         <v>17.409842</v>
       </c>
       <c r="O33">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P33">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q33">
-        <v>2.043822598309334</v>
+        <v>1.229386320695555</v>
       </c>
       <c r="R33">
-        <v>18.394403384784</v>
+        <v>11.06447688626</v>
       </c>
       <c r="S33">
-        <v>0.005432159679269578</v>
+        <v>0.002856048710950256</v>
       </c>
       <c r="T33">
-        <v>0.005432159679269578</v>
+        <v>0.002856048710950256</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H34">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N34">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O34">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P34">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q34">
-        <v>1.584222595704</v>
+        <v>1.2070239972</v>
       </c>
       <c r="R34">
-        <v>14.258003361336</v>
+        <v>10.8632159748</v>
       </c>
       <c r="S34">
-        <v>0.004210615008606816</v>
+        <v>0.002804097681303856</v>
       </c>
       <c r="T34">
-        <v>0.004210615008606816</v>
+        <v>0.002804097681303856</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H35">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N35">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O35">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P35">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q35">
-        <v>0.7188668283066667</v>
+        <v>0.2449882000377777</v>
       </c>
       <c r="R35">
-        <v>6.469801454760001</v>
+        <v>2.20489380034</v>
       </c>
       <c r="S35">
-        <v>0.001910635200296801</v>
+        <v>0.0005691443130098009</v>
       </c>
       <c r="T35">
-        <v>0.001910635200296801</v>
+        <v>0.0005691443130098009</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H36">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N36">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O36">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P36">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q36">
-        <v>2.266135696048</v>
+        <v>1.392161724403333</v>
       </c>
       <c r="R36">
-        <v>20.395221264432</v>
+        <v>12.52945551963</v>
       </c>
       <c r="S36">
-        <v>0.006023033000030623</v>
+        <v>0.003234200374189018</v>
       </c>
       <c r="T36">
-        <v>0.006023033000030622</v>
+        <v>0.003234200374189018</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H37">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N37">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O37">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P37">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q37">
-        <v>1.589791681296</v>
+        <v>0.9608385292566665</v>
       </c>
       <c r="R37">
-        <v>14.308125131664</v>
+        <v>8.647546763309998</v>
       </c>
       <c r="S37">
-        <v>0.004225416764017628</v>
+        <v>0.002232171935476103</v>
       </c>
       <c r="T37">
-        <v>0.004225416764017628</v>
+        <v>0.002232171935476103</v>
       </c>
     </row>
   </sheetData>
